--- a/ML Main/test_dump.xlsx
+++ b/ML Main/test_dump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\UnoReverse\ML Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26D9C2A-A5BF-405D-9CFA-5339CF6D1090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCA78DC-37F8-423D-9840-859BDACC44A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>score</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +41,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,10 +84,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,14 +399,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B90" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.7265625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -394,795 +417,696 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>7598</v>
+      <c r="B2" s="2">
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>102</v>
+      <c r="B3" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>42</v>
+      <c r="B4" s="2">
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1388</v>
+      <c r="B5" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1865</v>
+      <c r="B6" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>190</v>
+      <c r="B7" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>19</v>
+      <c r="B8" s="2">
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2706</v>
+      <c r="B9" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2036</v>
+      <c r="B10" s="2">
+        <v>5.75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>19</v>
+      <c r="B11" s="2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>3956</v>
+      <c r="B12" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1293</v>
+      <c r="B13" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>2043</v>
+      <c r="B14" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>2026</v>
+      <c r="B15" s="2">
+        <v>7.3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1069</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1738</v>
+      <c r="B18" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1752</v>
+      <c r="B19" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1269</v>
+      <c r="B20" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>42</v>
+      <c r="B21" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>373</v>
+      <c r="B22" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>8</v>
+      <c r="B23" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>39</v>
+      <c r="B24" s="2">
+        <v>7.9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>632</v>
+      <c r="B25" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>2134</v>
+      <c r="B26" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>5560</v>
+      <c r="B27" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>3089</v>
+      <c r="B28" s="2">
+        <v>9.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>3418</v>
+      <c r="B29" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>9802</v>
+      <c r="B30" s="2">
+        <v>8.4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>4048</v>
+      <c r="B31" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>3060</v>
+      <c r="B32" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>2406</v>
+      <c r="B33" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>255</v>
+      <c r="B34" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>137</v>
+      <c r="B35" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>9524</v>
+      <c r="B36" s="2">
+        <v>8.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>166</v>
+      <c r="B37" s="2">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>229</v>
+      <c r="B38" s="2">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>3418</v>
+      <c r="B39" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>327</v>
+      <c r="B40" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>2498</v>
+      <c r="B41" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>598</v>
+      <c r="B42" s="2">
+        <v>6.7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>845</v>
+      <c r="B43" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>17</v>
+      <c r="B44" s="2">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>612</v>
+      <c r="B45" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>2354</v>
+      <c r="B46" s="2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>9308</v>
+      <c r="B47" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>7272</v>
+      <c r="B48" s="2">
+        <v>8.5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>10138</v>
+      <c r="B49" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>36</v>
+      <c r="B50" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>4500</v>
+      <c r="B51" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>142</v>
+      <c r="B52" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>1198</v>
+      <c r="B53" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>1266</v>
+      <c r="B54" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>3503</v>
+      <c r="B55" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>550</v>
+      <c r="B56" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>1286</v>
+      <c r="B57" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>1386</v>
+      <c r="B58" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>71</v>
+      <c r="B59" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>565</v>
+      <c r="B60" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>18</v>
+      <c r="B61" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>547</v>
+      <c r="B62" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>3065</v>
+      <c r="B63" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>49</v>
+      <c r="B64" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>575</v>
+      <c r="B65" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>876</v>
+      <c r="B66" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>865</v>
+      <c r="B67" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>2193</v>
+      <c r="B68" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>1755</v>
-      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>2697</v>
-      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>2757</v>
-      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>4196</v>
-      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>4812</v>
-      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>2133</v>
-      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>4934</v>
-      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>4672</v>
-      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>1557</v>
-      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>1492</v>
-      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>2793</v>
-      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>2804</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>8755</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>7401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>11827</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>2596</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>17322</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>5168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>6936</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>10252</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>4449</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>2561</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>9398</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>18085</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
     </row>
   </sheetData>
